--- a/evaluation_scripts/all_metrics_val.xlsx
+++ b/evaluation_scripts/all_metrics_val.xlsx
@@ -2893,22 +2893,22 @@
         <v>49.21</v>
       </c>
       <c r="AL18" t="n">
-        <v>0.0829621700782396</v>
+        <v>0.1387977271305804</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.0778593580162054</v>
+        <v>0.027140460118012</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.4435056930969773</v>
+        <v>0.2846743650340264</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.673230658818166</v>
+        <v>0.5529214623765107</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.2409210717413328</v>
+        <v>0.1718504681989877</v>
       </c>
       <c r="AQ18" t="n">
-        <v>30.36957903501843</v>
+        <v>23.50768965716235</v>
       </c>
     </row>
     <row r="19">
@@ -3026,22 +3026,22 @@
         <v>60.32</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.0829621700782396</v>
+        <v>0.1733228700088745</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.0778593580162054</v>
+        <v>0.0410511724831363</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.4435056930969773</v>
+        <v>0.3055345506408375</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.673230658818166</v>
+        <v>0.6428722209871668</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.2409210717413328</v>
+        <v>0.2088429603682299</v>
       </c>
       <c r="AQ19" t="n">
-        <v>30.36957903501843</v>
+        <v>27.4324754897649</v>
       </c>
     </row>
     <row r="20">
@@ -3159,22 +3159,22 @@
         <v>100</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.0829621700782396</v>
+        <v>0.1794760510902288</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.0778593580162054</v>
+        <v>0.0514162051238417</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.4435056930969773</v>
+        <v>0.3282890521609779</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.673230658818166</v>
+        <v>0.6471240776428833</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.2409210717413328</v>
+        <v>0.22421860696792</v>
       </c>
       <c r="AQ20" t="n">
-        <v>30.36957903501843</v>
+        <v>28.61047985971704</v>
       </c>
     </row>
     <row r="21">
@@ -3292,22 +3292,22 @@
         <v>100</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.0829621700782396</v>
+        <v>0.1673123442866676</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.0778593580162054</v>
+        <v>0.0415816019104441</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.4435056930969773</v>
+        <v>0.3079902507874913</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.673230658818166</v>
+        <v>0.6338524706623996</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.2409210717413328</v>
+        <v>0.2110563889342524</v>
       </c>
       <c r="AQ21" t="n">
-        <v>30.36957903501843</v>
+        <v>27.2358611316251</v>
       </c>
     </row>
     <row r="22">
@@ -3425,22 +3425,22 @@
         <v>51.32</v>
       </c>
       <c r="AL22" t="n">
-        <v>0.0829621700782396</v>
+        <v>0.1074997912598786</v>
       </c>
       <c r="AM22" t="n">
-        <v>0.0778593580162054</v>
+        <v>0.0230231309391383</v>
       </c>
       <c r="AN22" t="n">
-        <v>0.4435056930969773</v>
+        <v>0.2950563500038319</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.673230658818166</v>
+        <v>0.5234147764134813</v>
       </c>
       <c r="AP22" t="n">
-        <v>0.2409210717413328</v>
+        <v>0.1555898324672224</v>
       </c>
       <c r="AQ22" t="n">
-        <v>30.36957903501843</v>
+        <v>22.09167762167105</v>
       </c>
     </row>
     <row r="23">
@@ -3558,22 +3558,22 @@
         <v>53.85</v>
       </c>
       <c r="AL23" t="n">
-        <v>0.0829621700782396</v>
+        <v>0.1255430421323685</v>
       </c>
       <c r="AM23" t="n">
-        <v>0.0778593580162054</v>
+        <v>0.0359002231628873</v>
       </c>
       <c r="AN23" t="n">
-        <v>0.4435056930969773</v>
+        <v>0.3241873572508759</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.673230658818166</v>
+        <v>0.5571084169961849</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.2409210717413328</v>
+        <v>0.1775136650296733</v>
       </c>
       <c r="AQ23" t="n">
-        <v>30.36957903501843</v>
+        <v>24.40505409143979</v>
       </c>
     </row>
     <row r="24">
@@ -3691,22 +3691,22 @@
         <v>91.01000000000001</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.0829621700782396</v>
+        <v>0.1609668814225578</v>
       </c>
       <c r="AM24" t="n">
-        <v>0.0778593580162054</v>
+        <v>0.0569001992053183</v>
       </c>
       <c r="AN24" t="n">
-        <v>0.4435056930969773</v>
+        <v>0.3506476495984502</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.673230658818166</v>
+        <v>0.6483980430630661</v>
       </c>
       <c r="AP24" t="n">
-        <v>0.2409210717413328</v>
+        <v>0.2269423832865461</v>
       </c>
       <c r="AQ24" t="n">
-        <v>30.36957903501843</v>
+        <v>28.87710313151877</v>
       </c>
     </row>
     <row r="25">
@@ -3824,22 +3824,22 @@
         <v>86.20999999999999</v>
       </c>
       <c r="AL25" t="n">
-        <v>0.0829621700782396</v>
+        <v>0.14426244801208</v>
       </c>
       <c r="AM25" t="n">
-        <v>0.0778593580162054</v>
+        <v>0.0435603727223187</v>
       </c>
       <c r="AN25" t="n">
-        <v>0.4435056930969773</v>
+        <v>0.3274641722842141</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.673230658818166</v>
+        <v>0.6384738943534207</v>
       </c>
       <c r="AP25" t="n">
-        <v>0.2409210717413328</v>
+        <v>0.2105137693363408</v>
       </c>
       <c r="AQ25" t="n">
-        <v>30.36957903501843</v>
+        <v>27.28549313416749</v>
       </c>
     </row>
   </sheetData>

--- a/evaluation_scripts/all_metrics_val.xlsx
+++ b/evaluation_scripts/all_metrics_val.xlsx
@@ -774,7 +774,7 @@
         <v>0.2829351192701639</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.6034286236548299</v>
+        <v>0.8017143118274149</v>
       </c>
       <c r="AP2" t="n">
         <v>0.1358943751743432</v>
@@ -907,7 +907,7 @@
         <v>0.282447437304909</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.6040303453285275</v>
+        <v>0.8020151726642637</v>
       </c>
       <c r="AP3" t="n">
         <v>0.1354918204824343</v>
@@ -1040,7 +1040,7 @@
         <v>0.5179353693910022</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.6873755285328726</v>
+        <v>0.8436877642664363</v>
       </c>
       <c r="AP4" t="n">
         <v>0.302583756159045</v>
@@ -1173,7 +1173,7 @@
         <v>0.5313218333566254</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.6980045662419083</v>
+        <v>0.8490022831209542</v>
       </c>
       <c r="AP5" t="n">
         <v>0.3186780872465046</v>
@@ -1306,7 +1306,7 @@
         <v>0.235977651329978</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.4868552671247034</v>
+        <v>0.7434276335623518</v>
       </c>
       <c r="AP6" t="n">
         <v>0.0940339571191023</v>
@@ -1439,7 +1439,7 @@
         <v>0.3254306432480701</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.6005651202963304</v>
+        <v>0.8002825601481651</v>
       </c>
       <c r="AP7" t="n">
         <v>0.0634956722797939</v>
@@ -1572,7 +1572,7 @@
         <v>0.4119745866263464</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.6377190639434581</v>
+        <v>0.8188595319717291</v>
       </c>
       <c r="AP8" t="n">
         <v>0.2040825611373639</v>
@@ -1705,7 +1705,7 @@
         <v>0.4057656367971846</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.6272885238928998</v>
+        <v>0.8136442619464499</v>
       </c>
       <c r="AP9" t="n">
         <v>0.1271053614134766</v>
@@ -1838,7 +1838,7 @@
         <v>0.2251247338724739</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.5558108320562238</v>
+        <v>0.7779054160281119</v>
       </c>
       <c r="AP10" t="n">
         <v>0.1142823484661072</v>
@@ -1971,7 +1971,7 @@
         <v>0.2702188328684521</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.5866908008482918</v>
+        <v>0.7933454004241459</v>
       </c>
       <c r="AP11" t="n">
         <v>0.1389460034074288</v>
@@ -2104,7 +2104,7 @@
         <v>0.4630096025879588</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.6504377237682124</v>
+        <v>0.8252188618841062</v>
       </c>
       <c r="AP12" t="n">
         <v>0.2689583724015526</v>
@@ -2237,7 +2237,7 @@
         <v>0.4665789162493466</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.6622666155725986</v>
+        <v>0.8311333077862992</v>
       </c>
       <c r="AP13" t="n">
         <v>0.2681445027398047</v>
@@ -2370,7 +2370,7 @@
         <v>0.2757847670547408</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.611840634359758</v>
+        <v>0.805920317179879</v>
       </c>
       <c r="AP14" t="n">
         <v>0.1358734730992164</v>
@@ -2503,7 +2503,7 @@
         <v>0.2746518145747039</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.6102273947749268</v>
+        <v>0.8051136973874634</v>
       </c>
       <c r="AP15" t="n">
         <v>0.1351659136820764</v>
@@ -2636,7 +2636,7 @@
         <v>0.3719626335049959</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.6469261064275228</v>
+        <v>0.8234630532137615</v>
       </c>
       <c r="AP16" t="n">
         <v>0.1911735957203482</v>
@@ -2769,7 +2769,7 @@
         <v>0.4435056930969773</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.673230658818166</v>
+        <v>0.836615329409083</v>
       </c>
       <c r="AP17" t="n">
         <v>0.2409210717413328</v>
@@ -2902,7 +2902,7 @@
         <v>0.2846743650340264</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.5529214623765107</v>
+        <v>0.7764607311882554</v>
       </c>
       <c r="AP18" t="n">
         <v>0.1718504681989877</v>
@@ -3035,7 +3035,7 @@
         <v>0.3055345506408375</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.6428722209871668</v>
+        <v>0.8214361104935834</v>
       </c>
       <c r="AP19" t="n">
         <v>0.2088429603682299</v>
@@ -3168,7 +3168,7 @@
         <v>0.3282890521609779</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.6471240776428833</v>
+        <v>0.8235620388214416</v>
       </c>
       <c r="AP20" t="n">
         <v>0.22421860696792</v>
@@ -3301,7 +3301,7 @@
         <v>0.3079902507874913</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.6338524706623996</v>
+        <v>0.8169262353311998</v>
       </c>
       <c r="AP21" t="n">
         <v>0.2110563889342524</v>
@@ -3434,7 +3434,7 @@
         <v>0.2950563500038319</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.5234147764134813</v>
+        <v>0.7617073882067407</v>
       </c>
       <c r="AP22" t="n">
         <v>0.1555898324672224</v>
@@ -3567,7 +3567,7 @@
         <v>0.3241873572508759</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.5571084169961849</v>
+        <v>0.7785542084980924</v>
       </c>
       <c r="AP23" t="n">
         <v>0.1775136650296733</v>
@@ -3700,7 +3700,7 @@
         <v>0.3506476495984502</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.6483980430630661</v>
+        <v>0.8241990215315331</v>
       </c>
       <c r="AP24" t="n">
         <v>0.2269423832865461</v>
@@ -3833,7 +3833,7 @@
         <v>0.3274641722842141</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.6384738943534207</v>
+        <v>0.8192369471767104</v>
       </c>
       <c r="AP25" t="n">
         <v>0.2105137693363408</v>
